--- a/Testing/Wind tunnel/23rd Sept/Wind tunnel test 23Sept - Isokinetic inlet.xlsx
+++ b/Testing/Wind tunnel/23rd Sept/Wind tunnel test 23Sept - Isokinetic inlet.xlsx
@@ -14424,6 +14424,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="525938800"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -18086,6 +18087,279 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111441</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>141900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619501" y="5524500"/>
+          <a:ext cx="4111940" cy="5475900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115300" y="6105525"/>
+          <a:ext cx="2743200" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600"/>
+            <a:t>Testing done in configuration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+            <a:t> shown</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+            <a:t>left, isokinetic inlet was tilted to the side as shown. 0° corresponds to inlet pointing straight forwards as in first test. Inlet approx 50mm above airframe</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13839824" y="5143500"/>
+          <a:ext cx="3171826" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Testing Parameters:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600" u="none" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-5m/s airspeed (apart from last run)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Mt.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Bromo ash, sieved to &lt;53 micron</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1600" u="none" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600" u="none" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-SAG with 3.3% belt speed to give 30 g/hour flow to give approx 10 mg/m^3 ash/air concentration.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1600" u="none">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18550,16 +18824,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -18568,7 +18842,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1857375" y="514350"/>
+          <a:off x="781050" y="409575"/>
           <a:ext cx="9744075" cy="5886450"/>
           <a:chOff x="7981950" y="276225"/>
           <a:chExt cx="8820150" cy="6115050"/>
@@ -18842,6 +19116,75 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="1943101"/>
+          <a:ext cx="2495550" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600"/>
+            <a:t>Wind tunnel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+            <a:t> fans were turned off between injections</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-NZ" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19259,8 +19602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26711,8 +27054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26727,7 +27070,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26742,7 +27085,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
